--- a/NhapExcel.xlsx
+++ b/NhapExcel.xlsx
@@ -24,14 +24,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>Mã phiếu nhập</t>
   </si>
   <si>
-    <t>Mã NCC</t>
-  </si>
-  <si>
     <t>Mã NV</t>
   </si>
   <si>
@@ -41,20 +38,29 @@
     <t>Tổng tiền</t>
   </si>
   <si>
-    <t>EM01</t>
-  </si>
-  <si>
     <t>WA1640942260978</t>
   </si>
   <si>
     <t>PR1640942292840</t>
+  </si>
+  <si>
+    <t>EM04</t>
+  </si>
+  <si>
+    <t>WA1640942260977</t>
+  </si>
+  <si>
+    <t>Mã SP</t>
+  </si>
+  <si>
+    <t>PR1640942292220</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,13 +86,6 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -141,12 +140,12 @@
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -429,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -449,34 +448,52 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>6</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>5</v>
       </c>
       <c r="D2" s="2">
         <f ca="1">TODAY()</f>
-        <v>45400</v>
+        <v>45426</v>
       </c>
       <c r="E2" s="3">
         <v>15000000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2">
+        <f ca="1">TODAY()</f>
+        <v>45426</v>
+      </c>
+      <c r="E3" s="3">
+        <v>13500000</v>
       </c>
     </row>
   </sheetData>
